--- a/config_Release/fish_3d_caibei_config.xlsx
+++ b/config_Release/fish_3d_caibei_config.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
-    <sheet name="config|彩贝配置" sheetId="5" r:id="rId2"/>
-    <sheet name="award_config|奖励配置" sheetId="7" r:id="rId3"/>
-    <sheet name="free_receive|免费领取" sheetId="9" r:id="rId4"/>
+    <sheet name="open_config|格子开启配置" sheetId="10" r:id="rId2"/>
+    <sheet name="config|彩贝配置" sheetId="5" r:id="rId3"/>
+    <sheet name="award_config|奖励配置" sheetId="7" r:id="rId4"/>
+    <sheet name="free_receive|免费领取" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>icon|彩贝的icon图片</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -85,10 +86,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>vip_limit_max|拥有最大数量的VIP等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -97,10 +94,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>default_count|默认彩贝格子数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>complete_money|快速完成需要的鲸币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -237,6 +230,18 @@
   </si>
   <si>
     <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|格子索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_limit|VIP等级限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_limit|等级限制</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -668,67 +673,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
         <v>5</v>
       </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
       <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -737,6 +726,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
@@ -769,10 +845,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -780,10 +856,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4">
         <v>600</v>
@@ -803,10 +879,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>1800</v>
@@ -826,10 +902,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4">
         <v>6000</v>
@@ -849,10 +925,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
         <v>12000</v>
@@ -872,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4">
         <v>24000</v>
@@ -1065,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -1095,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1106,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4">
         <v>80</v>
@@ -1127,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4">
         <v>10</v>
@@ -1145,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
@@ -1166,13 +1242,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4">
         <v>30</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -1184,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4">
         <v>60</v>
@@ -1202,10 +1278,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4">
         <v>10</v>
@@ -1223,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4">
         <v>40</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1240,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4">
         <v>60</v>
@@ -1261,13 +1337,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4">
         <v>40</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1278,10 +1354,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4">
         <v>60</v>
@@ -1299,13 +1375,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4">
         <v>40</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1316,10 +1392,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4">
         <v>60</v>
@@ -1424,7 +1500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1436,13 +1512,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
